--- a/public/files/TASK_UNDERTAKING_DETAILS.xlsx
+++ b/public/files/TASK_UNDERTAKING_DETAILS.xlsx
@@ -22,13 +22,13 @@
     <t>承接人证件号码</t>
   </si>
   <si>
-    <t>任务金额（元）</t>
+    <t>任务承揽费(元)</t>
   </si>
   <si>
-    <t>任务开始日期</t>
+    <t>任务开始时间</t>
   </si>
   <si>
-    <t>任务结束日期</t>
+    <t>任务结束时间</t>
   </si>
   <si>
     <t>张三</t>
@@ -993,7 +993,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
